--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>155.2826053333333</v>
+        <v>77.127561</v>
       </c>
       <c r="H2">
-        <v>465.847816</v>
+        <v>231.382683</v>
       </c>
       <c r="I2">
-        <v>0.4511422706622114</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="J2">
-        <v>0.4511422706622115</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>323.8139225537066</v>
+        <v>31.642327466673</v>
       </c>
       <c r="R2">
-        <v>2914.32530298336</v>
+        <v>284.780947200057</v>
       </c>
       <c r="S2">
-        <v>0.007912007617665711</v>
+        <v>0.001014559413298209</v>
       </c>
       <c r="T2">
-        <v>0.007912007617665711</v>
+        <v>0.001014559413298208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>155.2826053333333</v>
+        <v>77.127561</v>
       </c>
       <c r="H3">
-        <v>465.847816</v>
+        <v>231.382683</v>
       </c>
       <c r="I3">
-        <v>0.4511422706622114</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="J3">
-        <v>0.4511422706622115</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>15823.01378214672</v>
+        <v>7859.157553846053</v>
       </c>
       <c r="R3">
-        <v>142407.1240393205</v>
+        <v>70732.41798461448</v>
       </c>
       <c r="S3">
-        <v>0.386616500586106</v>
+        <v>0.2519910169454614</v>
       </c>
       <c r="T3">
-        <v>0.386616500586106</v>
+        <v>0.2519910169454614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>155.2826053333333</v>
+        <v>77.127561</v>
       </c>
       <c r="H4">
-        <v>465.847816</v>
+        <v>231.382683</v>
       </c>
       <c r="I4">
-        <v>0.4511422706622114</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="J4">
-        <v>0.4511422706622115</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>2317.025637242717</v>
+        <v>1150.847100944667</v>
       </c>
       <c r="R4">
-        <v>20853.23073518446</v>
+        <v>10357.623908502</v>
       </c>
       <c r="S4">
-        <v>0.05661376245843967</v>
+        <v>0.03690002768475652</v>
       </c>
       <c r="T4">
-        <v>0.05661376245843968</v>
+        <v>0.03690002768475652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>353.595055</v>
       </c>
       <c r="I5">
-        <v>0.3424330232507294</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="J5">
-        <v>0.3424330232507295</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>245.7862800308667</v>
+        <v>48.35526313309389</v>
       </c>
       <c r="R5">
-        <v>2212.0765202778</v>
+        <v>435.197368197845</v>
       </c>
       <c r="S5">
-        <v>0.006005495083675409</v>
+        <v>0.001550432326631582</v>
       </c>
       <c r="T5">
-        <v>0.006005495083675408</v>
+        <v>0.001550432326631581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>353.595055</v>
       </c>
       <c r="I6">
-        <v>0.3424330232507294</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="J6">
-        <v>0.3424330232507295</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
         <v>12010.23002877817</v>
@@ -818,10 +818,10 @@
         <v>108092.0702590036</v>
       </c>
       <c r="S6">
-        <v>0.2934556696272065</v>
+        <v>0.3850883581306573</v>
       </c>
       <c r="T6">
-        <v>0.2934556696272065</v>
+        <v>0.3850883581306572</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>353.595055</v>
       </c>
       <c r="I7">
-        <v>0.3424330232507294</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="J7">
-        <v>0.3424330232507295</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
-        <v>1758.704837713029</v>
+        <v>1758.704837713028</v>
       </c>
       <c r="R7">
-        <v>15828.34353941726</v>
+        <v>15828.34353941725</v>
       </c>
       <c r="S7">
-        <v>0.04297185853984752</v>
+        <v>0.05638999059706212</v>
       </c>
       <c r="T7">
-        <v>0.04297185853984752</v>
+        <v>0.05638999059706211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>213.153377</v>
       </c>
       <c r="I8">
-        <v>0.2064247060870591</v>
+        <v>0.267065614902133</v>
       </c>
       <c r="J8">
-        <v>0.2064247060870591</v>
+        <v>0.2670656149021329</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N8">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O8">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P8">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q8">
-        <v>148.1643333752133</v>
+        <v>29.14941113229811</v>
       </c>
       <c r="R8">
-        <v>1333.47900037692</v>
+        <v>262.344700190683</v>
       </c>
       <c r="S8">
-        <v>0.003620219060027044</v>
+        <v>0.0009346281333925575</v>
       </c>
       <c r="T8">
-        <v>0.003620219060027044</v>
+        <v>0.0009346281333925572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>213.153377</v>
       </c>
       <c r="I9">
-        <v>0.2064247060870591</v>
+        <v>0.267065614902133</v>
       </c>
       <c r="J9">
-        <v>0.2064247060870591</v>
+        <v>0.2670656149021329</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P9">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q9">
         <v>7239.97989502674</v>
@@ -1004,10 +1004,10 @@
         <v>65159.81905524066</v>
       </c>
       <c r="S9">
-        <v>0.1769002877623257</v>
+        <v>0.2321380992698979</v>
       </c>
       <c r="T9">
-        <v>0.1769002877623257</v>
+        <v>0.2321380992698978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>213.153377</v>
       </c>
       <c r="I10">
-        <v>0.2064247060870591</v>
+        <v>0.267065614902133</v>
       </c>
       <c r="J10">
-        <v>0.2064247060870591</v>
+        <v>0.2670656149021329</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q10">
         <v>1060.17850081294</v>
       </c>
       <c r="R10">
-        <v>9541.606507316457</v>
+        <v>9541.606507316455</v>
       </c>
       <c r="S10">
-        <v>0.02590419926470631</v>
+        <v>0.03399288749884253</v>
       </c>
       <c r="T10">
-        <v>0.02590419926470631</v>
+        <v>0.03399288749884252</v>
       </c>
     </row>
   </sheetData>
